--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Tnfrsf13c</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +528,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.50942284655374</v>
+        <v>2.651738666666667</v>
       </c>
       <c r="H2">
-        <v>2.50942284655374</v>
+        <v>7.955216</v>
       </c>
       <c r="I2">
-        <v>0.5656944404311818</v>
+        <v>0.5604432756981275</v>
       </c>
       <c r="J2">
-        <v>0.5656944404311818</v>
+        <v>0.5604432756981274</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.672287531437418</v>
+        <v>0.2138055</v>
       </c>
       <c r="N2">
-        <v>0.672287531437418</v>
+        <v>0.427611</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2116309566486094</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1517955144088434</v>
       </c>
       <c r="Q2">
-        <v>1.687053690842272</v>
+        <v>0.566956311496</v>
       </c>
       <c r="R2">
-        <v>1.687053690842272</v>
+        <v>3.401737868976</v>
       </c>
       <c r="S2">
-        <v>0.5656944404311818</v>
+        <v>0.1186071465832751</v>
       </c>
       <c r="T2">
-        <v>0.5656944404311818</v>
+        <v>0.08507277533157447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +593,57 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.415984713704974</v>
+        <v>2.651738666666667</v>
       </c>
       <c r="H3">
-        <v>0.415984713704974</v>
+        <v>7.955216</v>
       </c>
       <c r="I3">
-        <v>0.09377464629782599</v>
+        <v>0.5604432756981275</v>
       </c>
       <c r="J3">
-        <v>0.09377464629782599</v>
+        <v>0.5604432756981274</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.672287531437418</v>
+        <v>0.7964696666666667</v>
       </c>
       <c r="N3">
-        <v>0.672287531437418</v>
+        <v>2.389409</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7883690433513906</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8482044855911566</v>
       </c>
       <c r="Q3">
-        <v>0.279661336292418</v>
+        <v>2.112029411927111</v>
       </c>
       <c r="R3">
-        <v>0.279661336292418</v>
+        <v>19.008264707344</v>
       </c>
       <c r="S3">
-        <v>0.09377464629782599</v>
+        <v>0.4418361291148524</v>
       </c>
       <c r="T3">
-        <v>0.09377464629782599</v>
+        <v>0.4753705003665529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,241 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.5155733333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.54672</v>
+      </c>
+      <c r="I4">
+        <v>0.10896609512398</v>
+      </c>
+      <c r="J4">
+        <v>0.10896609512398</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.2138055</v>
+      </c>
+      <c r="N4">
+        <v>0.427611</v>
+      </c>
+      <c r="O4">
+        <v>0.2116309566486094</v>
+      </c>
+      <c r="P4">
+        <v>0.1517955144088434</v>
+      </c>
+      <c r="Q4">
+        <v>0.11023241432</v>
+      </c>
+      <c r="R4">
+        <v>0.6613944859199999</v>
+      </c>
+      <c r="S4">
+        <v>0.02306059895335126</v>
+      </c>
+      <c r="T4">
+        <v>0.0165405644624675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.51059652109838</v>
-      </c>
-      <c r="H4">
-        <v>1.51059652109838</v>
-      </c>
-      <c r="I4">
-        <v>0.3405309132709922</v>
-      </c>
-      <c r="J4">
-        <v>0.3405309132709922</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.672287531437418</v>
-      </c>
-      <c r="N4">
-        <v>0.672287531437418</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1.015555206167182</v>
-      </c>
-      <c r="R4">
-        <v>1.015555206167182</v>
-      </c>
-      <c r="S4">
-        <v>0.3405309132709922</v>
-      </c>
-      <c r="T4">
-        <v>0.3405309132709922</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5155733333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.54672</v>
+      </c>
+      <c r="I5">
+        <v>0.10896609512398</v>
+      </c>
+      <c r="J5">
+        <v>0.10896609512398</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.7964696666666667</v>
+      </c>
+      <c r="N5">
+        <v>2.389409</v>
+      </c>
+      <c r="O5">
+        <v>0.7883690433513906</v>
+      </c>
+      <c r="P5">
+        <v>0.8482044855911566</v>
+      </c>
+      <c r="Q5">
+        <v>0.4106385209422223</v>
+      </c>
+      <c r="R5">
+        <v>3.69574668848</v>
+      </c>
+      <c r="S5">
+        <v>0.08590549617062875</v>
+      </c>
+      <c r="T5">
+        <v>0.09242553066151248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.564190333333333</v>
+      </c>
+      <c r="H6">
+        <v>4.692571</v>
+      </c>
+      <c r="I6">
+        <v>0.3305906291778926</v>
+      </c>
+      <c r="J6">
+        <v>0.3305906291778925</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.2138055</v>
+      </c>
+      <c r="N6">
+        <v>0.427611</v>
+      </c>
+      <c r="O6">
+        <v>0.2116309566486094</v>
+      </c>
+      <c r="P6">
+        <v>0.1517955144088434</v>
+      </c>
+      <c r="Q6">
+        <v>0.3344324963135</v>
+      </c>
+      <c r="R6">
+        <v>2.006594977881</v>
+      </c>
+      <c r="S6">
+        <v>0.0699632111119831</v>
+      </c>
+      <c r="T6">
+        <v>0.05018217461480138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.564190333333333</v>
+      </c>
+      <c r="H7">
+        <v>4.692571</v>
+      </c>
+      <c r="I7">
+        <v>0.3305906291778926</v>
+      </c>
+      <c r="J7">
+        <v>0.3305906291778925</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7964696666666667</v>
+      </c>
+      <c r="N7">
+        <v>2.389409</v>
+      </c>
+      <c r="O7">
+        <v>0.7883690433513906</v>
+      </c>
+      <c r="P7">
+        <v>0.8482044855911566</v>
+      </c>
+      <c r="Q7">
+        <v>1.245830153393222</v>
+      </c>
+      <c r="R7">
+        <v>11.212471380539</v>
+      </c>
+      <c r="S7">
+        <v>0.2606274180659094</v>
+      </c>
+      <c r="T7">
+        <v>0.2804084545630911</v>
       </c>
     </row>
   </sheetData>
